--- a/Kitap1.xlsx
+++ b/Kitap1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meltem AKSOY\Desktop\Obesity-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meltem AKSOY\Desktop\Projects\Obesity-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40860E9-4888-42DA-8ED1-ABBFB886AC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661680F4-4C81-4B6F-AF73-50AA7B96D4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F22DFE37-10C9-44AB-8B61-D99CDB861D11}"/>
   </bookViews>
